--- a/data/trans_dic/PCS12_SP_R3-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/PCS12_SP_R3-Habitat-trans_dic.xlsx
@@ -673,7 +673,7 @@
         <v>0.1921288049298789</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>0.2672754126059197</v>
+        <v>0.2672754126059196</v>
       </c>
       <c r="G4" s="5" t="n">
         <v>0.2720765794051958</v>
@@ -685,7 +685,7 @@
         <v>0.3015113571100438</v>
       </c>
       <c r="J4" s="5" t="n">
-        <v>0.3169600063245015</v>
+        <v>0.3169600063245014</v>
       </c>
       <c r="K4" s="5" t="n">
         <v>0.2223143665802811</v>
@@ -708,40 +708,40 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.1483869984359027</v>
+        <v>0.147210412147643</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.1616943843587142</v>
+        <v>0.1580326809490656</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.1625742159364618</v>
+        <v>0.1662277253516345</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.2361840369728084</v>
+        <v>0.2368845617128869</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.2387273454992207</v>
+        <v>0.2426132604391708</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.2786352077166414</v>
+        <v>0.2809002494452278</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.2623919368309685</v>
+        <v>0.2671619632672093</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.2892512661696083</v>
+        <v>0.2888743817652425</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.1997582007948152</v>
+        <v>0.2010913924869208</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>0.2274183691776036</v>
+        <v>0.2307590771520799</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>0.2258223858108378</v>
+        <v>0.2224241665281175</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>0.2723488831435286</v>
+        <v>0.2722743374809141</v>
       </c>
     </row>
     <row r="6">
@@ -752,40 +752,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.2002294163108975</v>
+        <v>0.2042573094594781</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.223691888618424</v>
+        <v>0.2228731991803807</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.2250961790852351</v>
+        <v>0.2263690591069185</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.3050173785288104</v>
+        <v>0.3023706465696709</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.3072217858301019</v>
+        <v>0.3056843342854718</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.3509651999758597</v>
+        <v>0.3511866332457783</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.3375697267545094</v>
+        <v>0.3398499729582315</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.3466403160892583</v>
+        <v>0.3437158422749367</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.245087803178058</v>
+        <v>0.2445232925875071</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>0.278549228811516</v>
+        <v>0.2789584836585122</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>0.2723810675124713</v>
+        <v>0.2691982916902397</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>0.3172884863563497</v>
+        <v>0.3175974122906005</v>
       </c>
     </row>
     <row r="7">
@@ -844,40 +844,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.1218301645497436</v>
+        <v>0.1218839503026659</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.1597075290850932</v>
+        <v>0.1614002009479464</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.1409281215660083</v>
+        <v>0.1439710742529952</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.1594320366191727</v>
+        <v>0.1607693426082597</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.2441418535790588</v>
+        <v>0.2438778220444831</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.2645294156678484</v>
+        <v>0.266921996453457</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.2344786967158654</v>
+        <v>0.2352055013326051</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.2769017976605648</v>
+        <v>0.273059365767606</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.1890331805732964</v>
+        <v>0.1883242656073948</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>0.2232058419920107</v>
+        <v>0.2220554890998893</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>0.1963560941179417</v>
+        <v>0.1974963677859118</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>0.2247355520498547</v>
+        <v>0.2245942445706697</v>
       </c>
     </row>
     <row r="9">
@@ -888,40 +888,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.1642448692026893</v>
+        <v>0.1660779301022818</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.2113910489333976</v>
+        <v>0.2123954301065785</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.1885552014143178</v>
+        <v>0.1883289560473899</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.2077400754162033</v>
+        <v>0.2069437518846237</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.302901265615902</v>
+        <v>0.3017973039239203</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.3266684552540323</v>
+        <v>0.323197465111474</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.2914465775664983</v>
+        <v>0.2939641740509937</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.3233898493760651</v>
+        <v>0.321556036489306</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.2264020602426401</v>
+        <v>0.2265108290378363</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>0.2607944011122521</v>
+        <v>0.260610413729263</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>0.2337282905745722</v>
+        <v>0.2342467507628275</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>0.2576456105120405</v>
+        <v>0.2604055379909047</v>
       </c>
     </row>
     <row r="10">
@@ -945,7 +945,7 @@
         <v>0.1463161131000736</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>0.2027987108130927</v>
+        <v>0.2027987108130928</v>
       </c>
       <c r="G10" s="5" t="n">
         <v>0.2872535899641697</v>
@@ -969,7 +969,7 @@
         <v>0.1901928504532747</v>
       </c>
       <c r="N10" s="5" t="n">
-        <v>0.2346765057983835</v>
+        <v>0.2346765057983836</v>
       </c>
     </row>
     <row r="11">
@@ -980,40 +980,40 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.1439436104231088</v>
+        <v>0.1459504305612999</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.1151254111217132</v>
+        <v>0.1166494881326175</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.1186448761742346</v>
+        <v>0.120369123749693</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.1722421134702373</v>
+        <v>0.1736074383070977</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.2552971127218895</v>
+        <v>0.2546627412460848</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.2269869486646362</v>
+        <v>0.231576816150914</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.2040766229678004</v>
+        <v>0.2020255891427162</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.2399294068871487</v>
+        <v>0.2400558121214805</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.2089669727611927</v>
+        <v>0.2092402090176293</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>0.1825626267258105</v>
+        <v>0.1798707382718074</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>0.1703941793617675</v>
+        <v>0.1691362799551871</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>0.2146503509831867</v>
+        <v>0.2145739084375455</v>
       </c>
     </row>
     <row r="12">
@@ -1024,40 +1024,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.2029139762026789</v>
+        <v>0.2057785671677116</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.1749990190397982</v>
+        <v>0.1731811720185167</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.17311351679991</v>
+        <v>0.1741408528443864</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.2340276915951955</v>
+        <v>0.2317684552318396</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.3223846509785864</v>
+        <v>0.3210561535896534</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.2938947490311986</v>
+        <v>0.2979040757995545</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.2688811682846657</v>
+        <v>0.2670580603888758</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.2928199934860174</v>
+        <v>0.2964225601350603</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.2530017718983636</v>
+        <v>0.2546542228180968</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>0.2242009846636686</v>
+        <v>0.2232629396638586</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>0.2106833243634236</v>
+        <v>0.2115517292148058</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>0.2561194871864785</v>
+        <v>0.2542490200198609</v>
       </c>
     </row>
     <row r="13">
@@ -1081,7 +1081,7 @@
         <v>0.1685801441396781</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>0.2109949851647327</v>
+        <v>0.2109949851647328</v>
       </c>
       <c r="G13" s="5" t="n">
         <v>0.2606909417377812</v>
@@ -1116,40 +1116,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.130447531979082</v>
+        <v>0.1303045927044813</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.1681910500749444</v>
+        <v>0.1690328258194781</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.1442503508074886</v>
+        <v>0.1461064826665648</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.1872776351270403</v>
+        <v>0.1874034490673586</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.2336074257820035</v>
+        <v>0.2345634977988922</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.2685974324732233</v>
+        <v>0.2645504121431093</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.2267286681737896</v>
+        <v>0.2262066789979001</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.30276124595705</v>
+        <v>0.3020947028222641</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.1915571304270987</v>
+        <v>0.190526303627311</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>0.2258820315455134</v>
+        <v>0.2252387134878597</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>0.195819642157722</v>
+        <v>0.1953080435159165</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>0.254080119583012</v>
+        <v>0.2545197382136621</v>
       </c>
     </row>
     <row r="15">
@@ -1160,40 +1160,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.176669860929181</v>
+        <v>0.1764076733269451</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.2182313075117758</v>
+        <v>0.2234863076272436</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.1950582215593184</v>
+        <v>0.1941975795783417</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.2371791737629624</v>
+        <v>0.237457981708265</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.288692826365453</v>
+        <v>0.2900036682478755</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.3260693606724442</v>
+        <v>0.3239256838004977</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.2867285174498536</v>
+        <v>0.2824770717992822</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.3506221353011019</v>
+        <v>0.3506907097036296</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.2275024791368427</v>
+        <v>0.2274963074436285</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>0.2667843816456467</v>
+        <v>0.2672510516823557</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>0.2349680778788235</v>
+        <v>0.2339542670086276</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>0.2920878437625711</v>
+        <v>0.2902383761868557</v>
       </c>
     </row>
     <row r="16">
@@ -1252,40 +1252,40 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.14551860692494</v>
+        <v>0.1449027459305638</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.1654509730096534</v>
+        <v>0.1654130903929628</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.1544024319498621</v>
+        <v>0.1542445487510044</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.1990318071176179</v>
+        <v>0.1967285362591533</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.2571933473444453</v>
+        <v>0.2573566118516696</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.2765191303811136</v>
+        <v>0.2744258855450559</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.2468770966135048</v>
+        <v>0.2451047123067584</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.2894554468143383</v>
+        <v>0.2913950628832184</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.2062426678123697</v>
+        <v>0.2058033824492898</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>0.2262508016619111</v>
+        <v>0.2255210754517412</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>0.2050138658982271</v>
+        <v>0.2054304182217138</v>
       </c>
       <c r="N17" s="5" t="n">
-        <v>0.2500471021111381</v>
+        <v>0.2490728787982831</v>
       </c>
     </row>
     <row r="18">
@@ -1296,40 +1296,40 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.1711110876187533</v>
+        <v>0.170920721330434</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.193158831063228</v>
+        <v>0.1923500774824448</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.1796943019349646</v>
+        <v>0.1798218473448686</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.2252175043496672</v>
+        <v>0.2240401249399002</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.2871450819736884</v>
+        <v>0.2872776276898303</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.3093040485501006</v>
+        <v>0.3072859052383654</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.2769123722900101</v>
+        <v>0.2772737755479987</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.3148996357325343</v>
+        <v>0.3174012607880579</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.2268179905756705</v>
+        <v>0.2257335608490749</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>0.2470938181796452</v>
+        <v>0.2464991596612895</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>0.225768547184199</v>
+        <v>0.2248827002589991</v>
       </c>
       <c r="N18" s="5" t="n">
-        <v>0.2681461463154242</v>
+        <v>0.2684629070603896</v>
       </c>
     </row>
     <row r="19">
@@ -1600,40 +1600,40 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>102982</v>
+        <v>102166</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>113747</v>
+        <v>111171</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>109705</v>
+        <v>112170</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>161732</v>
+        <v>162212</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>164328</v>
+        <v>167003</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>194223</v>
+        <v>195802</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>176548</v>
+        <v>179757</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>210295</v>
+        <v>210021</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>276138</v>
+        <v>277981</v>
       </c>
       <c r="L6" s="6" t="n">
-        <v>318504</v>
+        <v>323182</v>
       </c>
       <c r="M6" s="6" t="n">
-        <v>304327</v>
+        <v>299747</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>384503</v>
+        <v>384397</v>
       </c>
     </row>
     <row r="7">
@@ -1644,40 +1644,40 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>138962</v>
+        <v>141757</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>157360</v>
+        <v>156784</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>151895</v>
+        <v>152754</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>208867</v>
+        <v>207055</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>211476</v>
+        <v>210418</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>244640</v>
+        <v>244795</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>227130</v>
+        <v>228664</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>252018</v>
+        <v>249892</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>338800</v>
+        <v>338020</v>
       </c>
       <c r="L7" s="6" t="n">
-        <v>390113</v>
+        <v>390687</v>
       </c>
       <c r="M7" s="6" t="n">
-        <v>367071</v>
+        <v>362782</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>447949</v>
+        <v>448385</v>
       </c>
     </row>
     <row r="8">
@@ -1780,40 +1780,40 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>117176</v>
+        <v>117228</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>162574</v>
+        <v>164297</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>144089</v>
+        <v>147200</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>166420</v>
+        <v>167816</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>236425</v>
+        <v>236170</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>273043</v>
+        <v>275513</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>244541</v>
+        <v>245299</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>294931</v>
+        <v>290839</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>364871</v>
+        <v>363502</v>
       </c>
       <c r="L10" s="6" t="n">
-        <v>457601</v>
+        <v>455243</v>
       </c>
       <c r="M10" s="6" t="n">
-        <v>405543</v>
+        <v>407898</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>473954</v>
+        <v>473656</v>
       </c>
     </row>
     <row r="11">
@@ -1824,40 +1824,40 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>157971</v>
+        <v>159734</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>215185</v>
+        <v>216207</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>192785</v>
+        <v>192553</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>216846</v>
+        <v>216014</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>293327</v>
+        <v>292258</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>337182</v>
+        <v>333599</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>303953</v>
+        <v>306579</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>344446</v>
+        <v>342493</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>437000</v>
+        <v>437210</v>
       </c>
       <c r="L11" s="6" t="n">
-        <v>534663</v>
+        <v>534285</v>
       </c>
       <c r="M11" s="6" t="n">
-        <v>482729</v>
+        <v>483800</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>543360</v>
+        <v>549180</v>
       </c>
     </row>
     <row r="12">
@@ -1960,40 +1960,40 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>97667</v>
+        <v>99029</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>87222</v>
+        <v>88376</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>90117</v>
+        <v>91427</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>137853</v>
+        <v>138946</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>174583</v>
+        <v>174149</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>176408</v>
+        <v>179975</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>160202</v>
+        <v>158592</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>194440</v>
+        <v>194542</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>284686</v>
+        <v>285058</v>
       </c>
       <c r="L14" s="6" t="n">
-        <v>280197</v>
+        <v>276065</v>
       </c>
       <c r="M14" s="6" t="n">
-        <v>263185</v>
+        <v>261242</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>345748</v>
+        <v>345625</v>
       </c>
     </row>
     <row r="15">
@@ -2004,40 +2004,40 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>137679</v>
+        <v>139623</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>132583</v>
+        <v>131206</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>131489</v>
+        <v>132269</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>187303</v>
+        <v>185495</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>220460</v>
+        <v>219551</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>228407</v>
+        <v>231523</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>211075</v>
+        <v>209644</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>237302</v>
+        <v>240222</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>344677</v>
+        <v>346928</v>
       </c>
       <c r="L15" s="6" t="n">
-        <v>344103</v>
+        <v>342663</v>
       </c>
       <c r="M15" s="6" t="n">
-        <v>325414</v>
+        <v>326755</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>412544</v>
+        <v>409531</v>
       </c>
     </row>
     <row r="16">
@@ -2140,40 +2140,40 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>122911</v>
+        <v>122776</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>159401</v>
+        <v>160199</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>135244</v>
+        <v>136985</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>184685</v>
+        <v>184809</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>242627</v>
+        <v>243620</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>282538</v>
+        <v>278281</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>236655</v>
+        <v>236110</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>336998</v>
+        <v>336256</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>379443</v>
+        <v>377401</v>
       </c>
       <c r="L18" s="6" t="n">
-        <v>451683</v>
+        <v>450396</v>
       </c>
       <c r="M18" s="6" t="n">
-        <v>387986</v>
+        <v>386973</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>533374</v>
+        <v>534297</v>
       </c>
     </row>
     <row r="19">
@@ -2184,40 +2184,40 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>166462</v>
+        <v>166215</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>206826</v>
+        <v>211807</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>182880</v>
+        <v>182073</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>233895</v>
+        <v>234170</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>299840</v>
+        <v>301201</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>342993</v>
+        <v>340738</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>299281</v>
+        <v>294844</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>390271</v>
+        <v>390348</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>450645</v>
+        <v>450632</v>
       </c>
       <c r="L19" s="6" t="n">
-        <v>533473</v>
+        <v>534406</v>
       </c>
       <c r="M19" s="6" t="n">
-        <v>465553</v>
+        <v>463544</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>613162</v>
+        <v>609279</v>
       </c>
     </row>
     <row r="20">
@@ -2320,40 +2320,40 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>476798</v>
+        <v>474780</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>566964</v>
+        <v>566834</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>524096</v>
+        <v>523560</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>699617</v>
+        <v>691521</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>869107</v>
+        <v>869659</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>983941</v>
+        <v>976492</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>875066</v>
+        <v>868784</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>1075508</v>
+        <v>1082715</v>
       </c>
       <c r="K22" s="6" t="n">
-        <v>1372698</v>
+        <v>1369774</v>
       </c>
       <c r="L22" s="6" t="n">
-        <v>1580382</v>
+        <v>1575285</v>
       </c>
       <c r="M22" s="6" t="n">
-        <v>1422569</v>
+        <v>1425459</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>1808023</v>
+        <v>1800979</v>
       </c>
     </row>
     <row r="23">
@@ -2364,40 +2364,40 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>560653</v>
+        <v>560029</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>661913</v>
+        <v>659141</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>609945</v>
+        <v>610378</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>791663</v>
+        <v>787524</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>970320</v>
+        <v>970768</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>1100599</v>
+        <v>1093418</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>981528</v>
+        <v>982809</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>1170050</v>
+        <v>1179345</v>
       </c>
       <c r="K23" s="6" t="n">
-        <v>1509642</v>
+        <v>1502424</v>
       </c>
       <c r="L23" s="6" t="n">
-        <v>1725972</v>
+        <v>1721818</v>
       </c>
       <c r="M23" s="6" t="n">
-        <v>1566584</v>
+        <v>1560437</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>1938892</v>
+        <v>1941183</v>
       </c>
     </row>
     <row r="24">
